--- a/app/config/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\refrigerators\forms\refrigerators_update\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3540" windowWidth="25820" windowHeight="12400"/>
+    <workbookView xWindow="6362" yWindow="3535" windowWidth="25815" windowHeight="12397" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>type</t>
   </si>
@@ -114,15 +119,9 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -136,12 +135,21 @@
   </si>
   <si>
     <t>Refrigerator id: {{data.refrigerator_id}}</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -196,6 +204,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,51 +501,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12">
+    <row r="1" spans="1:6" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -546,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -576,9 +587,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.25" customHeight="1">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -589,7 +600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.25" customHeight="1">
+    <row r="2" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -600,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.25" customHeight="1">
+    <row r="3" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -611,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22.25" customHeight="1">
+    <row r="4" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -622,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.25" customHeight="1">
+    <row r="5" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -633,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.25" customHeight="1">
+    <row r="6" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -662,13 +673,13 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -676,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -684,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+    <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -692,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+    <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -700,15 +711,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+    <row r="5" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -730,29 +741,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -760,7 +771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
+    <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -768,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+    <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -776,9 +787,9 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1">
+    <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>

--- a/app/config/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
+++ b/app/config/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6362" yWindow="3535" windowWidth="25815" windowHeight="12397" activeTab="3"/>
+    <workbookView xWindow="6362" yWindow="3535" windowWidth="25815" windowHeight="12397" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>type</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -519,19 +516,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -540,12 +537,12 @@
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -583,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +594,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -741,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -754,13 +751,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -789,7 +786,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
